--- a/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_TongHop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>&amp;=[DATA].CURRENTDATETIME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].ISGROUP</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,9 +273,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -282,33 +282,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -593,7 +624,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +637,8 @@
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -618,38 +650,38 @@
       <c r="A2" s="4"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -676,6 +708,7 @@
       <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -702,57 +735,62 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
+      <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <f>SUM(F9:F9)</f>
+        <f>SUM(F9:F9)/2</f>
         <v>0</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9">
-        <f>SUM(H9:H9)</f>
+        <f>SUM(H9:H9)/2</f>
         <v>0</v>
       </c>
+      <c r="I10" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -763,6 +801,11 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="E13:G13"/>
   </mergeCells>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_TongHop.xlsx
@@ -35,9 +35,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].ISGROUP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -298,6 +298,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +624,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,43 +643,43 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="10"/>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="11"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="12"/>
       <c r="I4" s="20"/>
     </row>
@@ -688,25 +688,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I7" s="21"/>
     </row>
@@ -738,40 +738,40 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>4</v>
+      <c r="A9" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
@@ -786,11 +786,11 @@
       <c r="I10" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
